--- a/biology/Zoologie/Ermite_de_Prêtre/Ermite_de_Prêtre.xlsx
+++ b/biology/Zoologie/Ermite_de_Prêtre/Ermite_de_Prêtre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ermite_de_Pr%C3%AAtre</t>
+          <t>Ermite_de_Prêtre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phaethornis pretrei
 L'Ermite de Prêtre (Phaethornis pretrei) est une espèce de colibris d'Amérique du Sud. Elle est présente en Argentine, Brésil, Bolivie et Paraguay.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ermite_de_Pr%C3%AAtre</t>
+          <t>Ermite_de_Prêtre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats sont les forêts tropicales et subtropicales humides de basses altitudes, les forêts sèches et la végétation de broussailles humides mais aussi les anciennes forêts lourdement dégradées et les jardins ruraux.
 </t>
